--- a/attachments/job_search_tracker_template.xlsx
+++ b/attachments/job_search_tracker_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\obsidian-technical-notes\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14741403-80CD-40FC-BBC7-0F9B73DD2BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B4EA61-38C3-464E-95C7-B2E381FA6368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="3270" windowWidth="41865" windowHeight="15345" xr2:uid="{923AD2FE-4DD3-4E6D-93C6-65292C91A29A}"/>
+    <workbookView xWindow="14175" yWindow="-20040" windowWidth="41865" windowHeight="15345" xr2:uid="{923AD2FE-4DD3-4E6D-93C6-65292C91A29A}"/>
   </bookViews>
   <sheets>
     <sheet name="job-record-sheet" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Application Deadline (yyyy/mm/dd)</t>
-  </si>
-  <si>
     <t>Response and Feedback</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Interview Date</t>
+  </si>
+  <si>
+    <t>Application Deadline</t>
   </si>
 </sst>
 </file>
@@ -222,93 +222,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
@@ -336,31 +250,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -373,65 +262,115 @@
       <font>
         <b val="0"/>
         <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <color auto="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
       <font>
@@ -451,44 +390,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     </dxf>
     <dxf>
       <font>
@@ -771,28 +672,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{744080BC-F40A-458B-8FA0-C303ECB01AE8}" name="Table1" displayName="Table1" ref="A1:S25" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{744080BC-F40A-458B-8FA0-C303ECB01AE8}" name="Table1" displayName="Table1" ref="A1:S25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:S25" xr:uid="{744080BC-F40A-458B-8FA0-C303ECB01AE8}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{0E32132C-7D28-4B2A-B8C8-73CC6AE0682D}" name="Company" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{116D2927-8B49-4549-BD70-4176639C467A}" name="Role/Title" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{47CC36BC-B28D-4D2A-B01F-8F8128305FAE}" name="Salary/Rate" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{09114297-238D-4384-B981-2D1CF8B6F99A}" name="Location/Remote" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{97476C4D-123E-4FF5-B8F1-461B00122DB0}" name="Job Link" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{210B0460-0D0F-4C17-8283-2C51C5AA2240}" name="Date Applied" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{FF9C74BB-1E9B-4BB5-A050-5378BAB90962}" name="Application Deadline (yyyy/mm/dd)" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{8E54B0E6-168C-497C-9A3B-2939145FA301}" name="Contact Name/Title" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{49D293C8-A557-4056-BCE5-ACDF78670E7B}" name="Contact Info Phone/E-mail" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{0D678FA4-7E53-4BB6-8908-1AB068DEEBCF}" name="Response and Feedback" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{1A37B84B-46CA-4075-B567-CA344A805EAD}" name="Interview Type" dataDxfId="19"/>
-    <tableColumn id="16" xr3:uid="{B20D08B2-9380-4A02-91D8-8CA7D7C1D9EF}" name="Interview Round" dataDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{FEF76619-E736-435D-AFBC-43C8B45868B7}" name="Interviewer Name" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{E69E324E-43C5-4B09-BB0A-5741E9E91E63}" name="Interview Time" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{0E8FA337-6ECC-4976-93C7-B48EF91923E2}" name="Interview Date" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{53D7DC99-17F5-454F-AD58-F6682C2A1A0F}" name="Follow-up?" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{5AD37FC5-B43C-4F6F-9340-A6CCDD4BDF26}" name="Follow-up Date" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{AD5C9B5D-AB86-4668-A0F3-388306485F54}" name="Offer" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{08588D13-6BB3-445F-A330-BD9ACB487491}" name="Notes" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{0E32132C-7D28-4B2A-B8C8-73CC6AE0682D}" name="Company" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{116D2927-8B49-4549-BD70-4176639C467A}" name="Role/Title" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{47CC36BC-B28D-4D2A-B01F-8F8128305FAE}" name="Salary/Rate" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{09114297-238D-4384-B981-2D1CF8B6F99A}" name="Location/Remote" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{97476C4D-123E-4FF5-B8F1-461B00122DB0}" name="Job Link" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{210B0460-0D0F-4C17-8283-2C51C5AA2240}" name="Date Applied" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{FF9C74BB-1E9B-4BB5-A050-5378BAB90962}" name="Application Deadline" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{8E54B0E6-168C-497C-9A3B-2939145FA301}" name="Contact Name/Title" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{49D293C8-A557-4056-BCE5-ACDF78670E7B}" name="Contact Info Phone/E-mail" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{0D678FA4-7E53-4BB6-8908-1AB068DEEBCF}" name="Response and Feedback" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{1A37B84B-46CA-4075-B567-CA344A805EAD}" name="Interview Type" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{B20D08B2-9380-4A02-91D8-8CA7D7C1D9EF}" name="Interview Round" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{FEF76619-E736-435D-AFBC-43C8B45868B7}" name="Interviewer Name" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{E69E324E-43C5-4B09-BB0A-5741E9E91E63}" name="Interview Time" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{0E8FA337-6ECC-4976-93C7-B48EF91923E2}" name="Interview Date" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{53D7DC99-17F5-454F-AD58-F6682C2A1A0F}" name="Follow-up?" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{5AD37FC5-B43C-4F6F-9340-A6CCDD4BDF26}" name="Follow-up Date" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{AD5C9B5D-AB86-4668-A0F3-388306485F54}" name="Offer" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{08588D13-6BB3-445F-A330-BD9ACB487491}" name="Notes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1098,7 +999,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1136,46 +1037,46 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>4</v>
@@ -1186,429 +1087,432 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="10:18" x14ac:dyDescent="0.2">
       <c r="J25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="no">
+      <formula>NOT(ISERROR(SEARCH("no",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="no">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="no">
       <formula>NOT(ISERROR(SEARCH("no",R1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="yes">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="yes">
       <formula>NOT(ISERROR(SEARCH("yes",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="no">
-      <formula>NOT(ISERROR(SEARCH("no",P1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Application Deadline" prompt="Format: yyyy/mm/dd" sqref="G2:G25" xr:uid="{950EFAFD-5554-4E8B-AC58-73550F803CDF}"/>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Application Deadline" prompt="Format: yyyy-mm-dd" sqref="G2:G25" xr:uid="{950EFAFD-5554-4E8B-AC58-73550F803CDF}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Contact's Information" prompt="Format_x000a_xxx-xxx-xxxx/contactme@company.com" sqref="I2:I25" xr:uid="{41149D81-5E3F-48FF-B25C-C5F6CC0B9873}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Date Applied to Application" prompt="Format: yyyy-mm-dd" sqref="F2:F25" xr:uid="{0EC0F997-E449-4AE6-B07F-9EBE2D0328EE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Interview Date Set" prompt="Format: yyyy-mm-dd" sqref="O2:O25" xr:uid="{39E02CA4-1068-44D0-87D7-EA129A85B6AC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Follow-up Date" prompt="When did you follow up?_x000a_Format: yyyy-mm-dd" sqref="Q2:Q25" xr:uid="{2EB9723C-CA67-4F91-8F34-0664D4E4BDB4}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1665,82 +1569,82 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1748,7 +1652,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1756,7 +1660,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1764,7 +1668,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
